--- a/data/trans_orig/BARTHEL_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/BARTHEL_R2-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>10232</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5625</v>
+        <v>5560</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18616</v>
+        <v>17789</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0349720527090879</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01922662911978508</v>
+        <v>0.01900299830896214</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06362580541204353</v>
+        <v>0.0608012725228249</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>25</v>
@@ -765,19 +765,19 @@
         <v>24209</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>16019</v>
+        <v>16336</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>33511</v>
+        <v>34398</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07059428950744384</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04671189667540968</v>
+        <v>0.04763592594993141</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09771911828620262</v>
+        <v>0.1003063116589211</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>36</v>
@@ -786,19 +786,19 @@
         <v>34441</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>24596</v>
+        <v>24447</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>46451</v>
+        <v>47978</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05419431762704698</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03870191298640373</v>
+        <v>0.03846844481030196</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07309215204222916</v>
+        <v>0.07549399998632285</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>282351</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>273967</v>
+        <v>274794</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>286958</v>
+        <v>287023</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9650279472909121</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9363741945879568</v>
+        <v>0.9391987274771748</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9807733708802149</v>
+        <v>0.9809970016910378</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>346</v>
@@ -836,19 +836,19 @@
         <v>318725</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>309423</v>
+        <v>308536</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>326915</v>
+        <v>326598</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9294057104925562</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9022808817137973</v>
+        <v>0.8996936883410789</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9532881033245902</v>
+        <v>0.9523640740500686</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>638</v>
@@ -857,19 +857,19 @@
         <v>601076</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>589066</v>
+        <v>587539</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>610921</v>
+        <v>611070</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.945805682372953</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9269078479577708</v>
+        <v>0.9245060000136772</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9612980870135962</v>
+        <v>0.961531555189698</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>29668</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>20753</v>
+        <v>21517</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>41045</v>
+        <v>41668</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1413572027898167</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09888120446532433</v>
+        <v>0.1025188508502932</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1955635640378007</v>
+        <v>0.1985304721975168</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>58</v>
@@ -982,19 +982,19 @@
         <v>66886</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>52571</v>
+        <v>52250</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>83156</v>
+        <v>83193</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2003121214255991</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1574415658311968</v>
+        <v>0.156478827754965</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2490392478432244</v>
+        <v>0.2491509035458136</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>90</v>
@@ -1003,19 +1003,19 @@
         <v>96554</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>79319</v>
+        <v>78790</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>115289</v>
+        <v>116007</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1775577256954466</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1458634064521358</v>
+        <v>0.1448910844071477</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2120094246199346</v>
+        <v>0.2133295696434878</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>180215</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>168838</v>
+        <v>168215</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>189130</v>
+        <v>188366</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8586427972101833</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8044364359621992</v>
+        <v>0.8014695278024829</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9011187955346756</v>
+        <v>0.8974811491497064</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>232</v>
@@ -1053,19 +1053,19 @@
         <v>267022</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>250752</v>
+        <v>250715</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>281337</v>
+        <v>281658</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7996878785744008</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7509607521567757</v>
+        <v>0.7508490964541864</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8425584341688032</v>
+        <v>0.843521172245035</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>420</v>
@@ -1074,19 +1074,19 @@
         <v>447237</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>428502</v>
+        <v>427784</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>464472</v>
+        <v>465001</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8224422743045534</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7879905753800653</v>
+        <v>0.7866704303565123</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.854136593547864</v>
+        <v>0.8551089155928523</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>39901</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>29873</v>
+        <v>31162</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>52652</v>
+        <v>53936</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07940976007269224</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05945337702034552</v>
+        <v>0.06201777712561553</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.104787350763361</v>
+        <v>0.1073428281719093</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>83</v>
@@ -1199,19 +1199,19 @@
         <v>91095</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>73832</v>
+        <v>75498</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>111955</v>
+        <v>111199</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1345882867724461</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1090825589652583</v>
+        <v>0.1115440447089625</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1654076424618103</v>
+        <v>0.1642911756875978</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>126</v>
@@ -1220,19 +1220,19 @@
         <v>130996</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>111956</v>
+        <v>110431</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>155437</v>
+        <v>153159</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1110784540414075</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09493386779726039</v>
+        <v>0.0936404206635955</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1318035758450402</v>
+        <v>0.1298715026348456</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>462565</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>449814</v>
+        <v>448530</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>472593</v>
+        <v>471304</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9205902399273078</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8952126492366392</v>
+        <v>0.8926571718280908</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9405466229796545</v>
+        <v>0.9379822228743845</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>578</v>
@@ -1270,19 +1270,19 @@
         <v>585747</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>564887</v>
+        <v>565643</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>603010</v>
+        <v>601344</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8654117132275538</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8345923575381898</v>
+        <v>0.8357088243124026</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8909174410347418</v>
+        <v>0.8884559552910377</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1058</v>
@@ -1291,19 +1291,19 @@
         <v>1048312</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1023871</v>
+        <v>1026149</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1067352</v>
+        <v>1068877</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8889215459585925</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8681964241549595</v>
+        <v>0.8701284973651543</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9050661322027396</v>
+        <v>0.9063595793364043</v>
       </c>
     </row>
     <row r="12">
@@ -1633,19 +1633,19 @@
         <v>24571</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15484</v>
+        <v>16200</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>35035</v>
+        <v>36172</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07931467898907114</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04998130705187766</v>
+        <v>0.05229310387326631</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1130940089371805</v>
+        <v>0.116764605586571</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>40</v>
@@ -1654,19 +1654,19 @@
         <v>41573</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>30004</v>
+        <v>30699</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>55135</v>
+        <v>57179</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1174397137197355</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08475687006975954</v>
+        <v>0.086720887245816</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1557510990012763</v>
+        <v>0.1615248272422835</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>63</v>
@@ -1675,19 +1675,19 @@
         <v>66144</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>51531</v>
+        <v>52308</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>83141</v>
+        <v>84481</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09964681527461827</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07763192963479001</v>
+        <v>0.07880235756489265</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1252530801740817</v>
+        <v>0.1272727371702939</v>
       </c>
     </row>
     <row r="5">
@@ -1704,19 +1704,19 @@
         <v>285215</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>274751</v>
+        <v>273614</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>294302</v>
+        <v>293586</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9206853210109288</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8869059910628194</v>
+        <v>0.8832353944134287</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9500186929481224</v>
+        <v>0.9477068961267336</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>304</v>
@@ -1725,19 +1725,19 @@
         <v>312423</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>298861</v>
+        <v>296817</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>323992</v>
+        <v>323297</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8825602862802645</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8442489009987237</v>
+        <v>0.8384751727577165</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9152431299302406</v>
+        <v>0.9132791127541841</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>563</v>
@@ -1746,19 +1746,19 @@
         <v>597638</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>580641</v>
+        <v>579301</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>612251</v>
+        <v>611474</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9003531847253817</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8747469198259185</v>
+        <v>0.8727272628297061</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9223680703652101</v>
+        <v>0.9211976424351074</v>
       </c>
     </row>
     <row r="6">
@@ -1850,19 +1850,19 @@
         <v>58965</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>46006</v>
+        <v>44268</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>75676</v>
+        <v>75491</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2359986733609115</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1841346958885193</v>
+        <v>0.1771785349223298</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3028826907032167</v>
+        <v>0.3021446155057952</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>136</v>
@@ -1871,19 +1871,19 @@
         <v>150877</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>131108</v>
+        <v>131588</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>171131</v>
+        <v>170900</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3878788157756945</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3370573834250524</v>
+        <v>0.3382900324179371</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.439947961744469</v>
+        <v>0.4393551786785061</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>185</v>
@@ -1892,19 +1892,19 @@
         <v>209841</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>184332</v>
+        <v>185311</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>234447</v>
+        <v>237426</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3284774225264067</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2885459747723362</v>
+        <v>0.290078816240942</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3669948430107541</v>
+        <v>0.3716579201646609</v>
       </c>
     </row>
     <row r="8">
@@ -1921,19 +1921,19 @@
         <v>190886</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>174175</v>
+        <v>174360</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>203845</v>
+        <v>205583</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7640013266390885</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6971173092967844</v>
+        <v>0.6978553844942049</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8158653041114811</v>
+        <v>0.8228214650776704</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>214</v>
@@ -1942,19 +1942,19 @@
         <v>238102</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>217848</v>
+        <v>218079</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>257871</v>
+        <v>257391</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6121211842243055</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.560052038255531</v>
+        <v>0.560644821321494</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6629426165749476</v>
+        <v>0.6617099675820629</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>387</v>
@@ -1963,19 +1963,19 @@
         <v>428989</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>404383</v>
+        <v>401404</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>454498</v>
+        <v>453519</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6715225774735933</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.633005156989246</v>
+        <v>0.6283420798353392</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7114540252276639</v>
+        <v>0.709921183759058</v>
       </c>
     </row>
     <row r="9">
@@ -2067,19 +2067,19 @@
         <v>83535</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>66858</v>
+        <v>67035</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>102727</v>
+        <v>102984</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1492664998936019</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1194661974566731</v>
+        <v>0.1197834281617317</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1835594003343589</v>
+        <v>0.1840200374816254</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>176</v>
@@ -2088,19 +2088,19 @@
         <v>192450</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>168720</v>
+        <v>166780</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>217140</v>
+        <v>215353</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2590260808669191</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2270864013637616</v>
+        <v>0.224475628821827</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2922577494977263</v>
+        <v>0.2898526126371199</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>248</v>
@@ -2109,19 +2109,19 @@
         <v>275985</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>249496</v>
+        <v>247130</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>311277</v>
+        <v>306910</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2118704236422067</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1915354371161057</v>
+        <v>0.1897191808320553</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.238964065513868</v>
+        <v>0.2356114363057071</v>
       </c>
     </row>
     <row r="11">
@@ -2138,19 +2138,19 @@
         <v>476102</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>456910</v>
+        <v>456653</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>492779</v>
+        <v>492602</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8507335001063981</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8164405996656411</v>
+        <v>0.8159799625183749</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8805338025433268</v>
+        <v>0.8802165718382683</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>518</v>
@@ -2159,19 +2159,19 @@
         <v>550525</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>525835</v>
+        <v>527622</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>574255</v>
+        <v>576195</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7409739191330809</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7077422505022735</v>
+        <v>0.71014738736288</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7729135986362383</v>
+        <v>0.7755243711781729</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>950</v>
@@ -2180,19 +2180,19 @@
         <v>1026627</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>991335</v>
+        <v>995702</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1053116</v>
+        <v>1055482</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7881295763577932</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.761035934486132</v>
+        <v>0.7643885636942933</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8084645628838943</v>
+        <v>0.8102808191679449</v>
       </c>
     </row>
     <row r="12">
@@ -2522,19 +2522,19 @@
         <v>19220</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12091</v>
+        <v>12399</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>29179</v>
+        <v>29641</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0574878466732027</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03616530216765557</v>
+        <v>0.03708525575018656</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08727511464431296</v>
+        <v>0.08865901688823287</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>32</v>
@@ -2543,19 +2543,19 @@
         <v>34060</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>23954</v>
+        <v>23797</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>48664</v>
+        <v>46214</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09016285437448737</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06341074892865384</v>
+        <v>0.06299598306164025</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1288222873365152</v>
+        <v>0.1223370650737575</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>51</v>
@@ -2564,19 +2564,19 @@
         <v>53280</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>40600</v>
+        <v>40619</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>69266</v>
+        <v>67885</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07482180958208712</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05701458808037398</v>
+        <v>0.05704192524916173</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0972714471749886</v>
+        <v>0.09533183632140085</v>
       </c>
     </row>
     <row r="5">
@@ -2593,19 +2593,19 @@
         <v>315110</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>305151</v>
+        <v>304689</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>322239</v>
+        <v>321931</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9425121533267973</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.912724885355687</v>
+        <v>0.911340983111767</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9638346978323444</v>
+        <v>0.9629147442498135</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>322</v>
@@ -2614,19 +2614,19 @@
         <v>343702</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>329098</v>
+        <v>331548</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>353808</v>
+        <v>353965</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9098371456255127</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8711777126634849</v>
+        <v>0.8776629349262425</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9365892510713462</v>
+        <v>0.9370040169383598</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>628</v>
@@ -2635,19 +2635,19 @@
         <v>658812</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>642826</v>
+        <v>644207</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>671492</v>
+        <v>671473</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9251781904179129</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9027285528250116</v>
+        <v>0.9046681636785991</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.942985411919626</v>
+        <v>0.9429580747508384</v>
       </c>
     </row>
     <row r="6">
@@ -2739,19 +2739,19 @@
         <v>50878</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>38834</v>
+        <v>39413</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>63277</v>
+        <v>63167</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1979712648368656</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1511064092333862</v>
+        <v>0.1533598860597925</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2462163687435588</v>
+        <v>0.2457873833625685</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>101</v>
@@ -2760,19 +2760,19 @@
         <v>134689</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>114283</v>
+        <v>111988</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>156907</v>
+        <v>156082</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3365804269018289</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2855868853141778</v>
+        <v>0.279852826728652</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3921020016643418</v>
+        <v>0.3900397953661482</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>159</v>
@@ -2781,19 +2781,19 @@
         <v>185567</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>163093</v>
+        <v>161412</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>212076</v>
+        <v>212026</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2823746047088032</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2481758329215394</v>
+        <v>0.2456179258431793</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3227123447461338</v>
+        <v>0.3226359785462677</v>
       </c>
     </row>
     <row r="8">
@@ -2810,19 +2810,19 @@
         <v>206120</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>193721</v>
+        <v>193831</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>218164</v>
+        <v>217585</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8020287351631344</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7537836312564411</v>
+        <v>0.7542126166374314</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8488935907666136</v>
+        <v>0.8466401139402076</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>200</v>
@@ -2831,19 +2831,19 @@
         <v>265480</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>243262</v>
+        <v>244087</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>285886</v>
+        <v>288181</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6634195730981711</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6078979983356579</v>
+        <v>0.6099602046338516</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7144131146858221</v>
+        <v>0.7201471732713479</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>444</v>
@@ -2852,19 +2852,19 @@
         <v>471600</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>445091</v>
+        <v>445141</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>494074</v>
+        <v>495755</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7176253952911968</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6772876552538661</v>
+        <v>0.6773640214537324</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7518241670784606</v>
+        <v>0.7543820741568211</v>
       </c>
     </row>
     <row r="9">
@@ -2956,19 +2956,19 @@
         <v>70098</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>55548</v>
+        <v>56185</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>84939</v>
+        <v>86038</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1185435682155047</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09393714285838607</v>
+        <v>0.0950147842748811</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1436416754500486</v>
+        <v>0.1455002202359778</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>133</v>
@@ -2977,19 +2977,19 @@
         <v>168749</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>143467</v>
+        <v>145972</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>194011</v>
+        <v>195591</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.216920463125211</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1844212478486017</v>
+        <v>0.1876409181414094</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2493932630837101</v>
+        <v>0.2514244434300952</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>210</v>
@@ -2998,19 +2998,19 @@
         <v>238847</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>210567</v>
+        <v>211551</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>267814</v>
+        <v>270154</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1744354311300117</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.153781921885389</v>
+        <v>0.1545002727097729</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1955905141284803</v>
+        <v>0.1972995935479556</v>
       </c>
     </row>
     <row r="11">
@@ -3027,19 +3027,19 @@
         <v>521230</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>506389</v>
+        <v>505290</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>535780</v>
+        <v>535143</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8814564317844953</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8563583245499513</v>
+        <v>0.8544997797640222</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9060628571416139</v>
+        <v>0.9049852157251188</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>522</v>
@@ -3048,19 +3048,19 @@
         <v>609182</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>583920</v>
+        <v>582340</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>634464</v>
+        <v>631959</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7830795368747889</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7506067369162895</v>
+        <v>0.7485755565699047</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.815578752151398</v>
+        <v>0.8123590818585906</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1072</v>
@@ -3069,19 +3069,19 @@
         <v>1130412</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1101445</v>
+        <v>1099105</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1158692</v>
+        <v>1157708</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8255645688699883</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8044094858715196</v>
+        <v>0.8027004064520443</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8462180781146109</v>
+        <v>0.8454997272902272</v>
       </c>
     </row>
     <row r="12">
@@ -3411,19 +3411,19 @@
         <v>25477</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>17787</v>
+        <v>18763</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>34582</v>
+        <v>33607</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.06258406290827725</v>
+        <v>0.06258406290827727</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04369490638263607</v>
+        <v>0.04609259799325045</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08495176844405242</v>
+        <v>0.08255503268258481</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>65</v>
@@ -3432,19 +3432,19 @@
         <v>35700</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>27472</v>
+        <v>28127</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>44629</v>
+        <v>44738</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0817974682937145</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06294433276318301</v>
+        <v>0.06444566026910035</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1022556890215594</v>
+        <v>0.1025054156373533</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>104</v>
@@ -3453,19 +3453,19 @@
         <v>61177</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>50572</v>
+        <v>50205</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>73750</v>
+        <v>73105</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07252519670592619</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05995324997120544</v>
+        <v>0.05951774604095825</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08743093678110135</v>
+        <v>0.08666612195059607</v>
       </c>
     </row>
     <row r="5">
@@ -3482,19 +3482,19 @@
         <v>381603</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>372498</v>
+        <v>373473</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>389293</v>
+        <v>388317</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9374159370917227</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9150482315559475</v>
+        <v>0.9174449673174152</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9563050936173633</v>
+        <v>0.9539074020067497</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>757</v>
@@ -3503,19 +3503,19 @@
         <v>400745</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>391816</v>
+        <v>391707</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>408973</v>
+        <v>408318</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9182025317062853</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8977443109784407</v>
+        <v>0.8974945843626467</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9370556672368171</v>
+        <v>0.9355543397308996</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1288</v>
@@ -3524,19 +3524,19 @@
         <v>782347</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>769774</v>
+        <v>770419</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>792952</v>
+        <v>793319</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9274748032940738</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9125690632188989</v>
+        <v>0.9133338780494039</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9400467500287946</v>
+        <v>0.9404822539590419</v>
       </c>
     </row>
     <row r="6">
@@ -3628,19 +3628,19 @@
         <v>64887</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>53949</v>
+        <v>54482</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>77273</v>
+        <v>77838</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2112544760887444</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1756419544610665</v>
+        <v>0.1773760614648414</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2515795534002881</v>
+        <v>0.2534180471100428</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>321</v>
@@ -3649,19 +3649,19 @@
         <v>170882</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>155432</v>
+        <v>154957</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>186948</v>
+        <v>186646</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.370927123246556</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3373886317374323</v>
+        <v>0.3363594071501307</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.405799533107169</v>
+        <v>0.4051443515819805</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>422</v>
@@ -3670,19 +3670,19 @@
         <v>235770</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>216792</v>
+        <v>217712</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>256978</v>
+        <v>256836</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3070548443994012</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2823388886850068</v>
+        <v>0.2835370681769255</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3346751758303108</v>
+        <v>0.3344904592272245</v>
       </c>
     </row>
     <row r="8">
@@ -3699,19 +3699,19 @@
         <v>242266</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>229880</v>
+        <v>229315</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>253204</v>
+        <v>252671</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7887455239112556</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7484204465997116</v>
+        <v>0.7465819528899568</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8243580455389334</v>
+        <v>0.8226239385351587</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>553</v>
@@ -3720,19 +3720,19 @@
         <v>289808</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>273742</v>
+        <v>274044</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>305258</v>
+        <v>305733</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6290728767534439</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.594200466892831</v>
+        <v>0.5948556484180195</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6626113682625675</v>
+        <v>0.6636405928498693</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>906</v>
@@ -3741,19 +3741,19 @@
         <v>532073</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>510865</v>
+        <v>511007</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>551051</v>
+        <v>550131</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6929451556005989</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6653248241696897</v>
+        <v>0.6655095407727756</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7176611113149932</v>
+        <v>0.7164629318230746</v>
       </c>
     </row>
     <row r="9">
@@ -3845,19 +3845,19 @@
         <v>90364</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>76793</v>
+        <v>77903</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>107061</v>
+        <v>108281</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1265191755149686</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.107518593019347</v>
+        <v>0.1090724252550989</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1498971791544236</v>
+        <v>0.1516048100562587</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>386</v>
@@ -3866,19 +3866,19 @@
         <v>206583</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>188855</v>
+        <v>188566</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>225571</v>
+        <v>227296</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2302692797177392</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2105090839735098</v>
+        <v>0.2101863468184201</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2514352744746131</v>
+        <v>0.2533576031726413</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>526</v>
@@ -3887,19 +3887,19 @@
         <v>296947</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>273440</v>
+        <v>274051</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>321450</v>
+        <v>321807</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1842824470834792</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1696941726477344</v>
+        <v>0.1700733049316157</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1994889020732241</v>
+        <v>0.1997102230548681</v>
       </c>
     </row>
     <row r="11">
@@ -3916,19 +3916,19 @@
         <v>623868</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>607171</v>
+        <v>605951</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>637439</v>
+        <v>636329</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8734808244850314</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8501028208455765</v>
+        <v>0.8483951899437413</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.892481406980653</v>
+        <v>0.8909275747449011</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1310</v>
@@ -3937,19 +3937,19 @@
         <v>690552</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>671564</v>
+        <v>669839</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>708280</v>
+        <v>708569</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.7697307202822607</v>
+        <v>0.7697307202822609</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.748564725525387</v>
+        <v>0.7466423968273588</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7894909160264902</v>
+        <v>0.7898136531815799</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2194</v>
@@ -3958,19 +3958,19 @@
         <v>1314421</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1289918</v>
+        <v>1289561</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1337928</v>
+        <v>1337317</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8157175529165208</v>
+        <v>0.8157175529165207</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8005110979267761</v>
+        <v>0.8002897769451318</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.830305827352266</v>
+        <v>0.8299266950683842</v>
       </c>
     </row>
     <row r="12">
